--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt3_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt3_completions_RQ1_label_undeter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="11_0D9540EE266B093C412D4C08052D3833786CCDC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031B1189-016C-4A93-94E3-5DB3C3C87878}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="11_0D9540EE266B093C412D4C08052D3833786CCDC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CAAB6F-D053-4DF5-B82D-AF4942AEE49A}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="4953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10907" uniqueCount="4950">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -17885,15 +17885,6 @@
   </si>
   <si>
     <t>Bad intentions detection</t>
-  </si>
-  <si>
-    <t>Reluctant selection</t>
-  </si>
-  <si>
-    <t>Hallucination</t>
-  </si>
-  <si>
-    <t>Negative of an option</t>
   </si>
   <si>
     <t>Remove target term</t>
@@ -17974,7 +17965,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -17992,6 +17983,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18281,10 +18276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1509"/>
+  <dimension ref="A1:J1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1372" workbookViewId="0">
-      <selection activeCell="J1510" sqref="J1510"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18294,7 +18289,7 @@
     <col min="9" max="9" width="14.9296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18320,10 +18315,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4952</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18351,11 +18346,8 @@
       <c r="I2" t="s">
         <v>4940</v>
       </c>
-      <c r="M2" t="s">
-        <v>4943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18383,11 +18375,8 @@
       <c r="I3" t="s">
         <v>4941</v>
       </c>
-      <c r="M3" t="s">
-        <v>4944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18415,11 +18404,8 @@
       <c r="I4" t="s">
         <v>4941</v>
       </c>
-      <c r="M4" t="s">
-        <v>4945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1462</v>
       </c>
@@ -18450,11 +18436,8 @@
       <c r="J5" t="s">
         <v>4946</v>
       </c>
-      <c r="M5" t="s">
-        <v>4946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>556</v>
       </c>
@@ -18485,11 +18468,8 @@
       <c r="J6" t="s">
         <v>4947</v>
       </c>
-      <c r="M6" t="s">
-        <v>4947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -18520,11 +18500,8 @@
       <c r="J7" t="s">
         <v>4947</v>
       </c>
-      <c r="M7" t="s">
-        <v>4948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18552,11 +18529,8 @@
       <c r="I8" t="s">
         <v>4940</v>
       </c>
-      <c r="M8" t="s">
-        <v>4949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18584,11 +18558,8 @@
       <c r="I9" t="s">
         <v>4941</v>
       </c>
-      <c r="M9" t="s">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>839</v>
       </c>
@@ -18619,11 +18590,8 @@
       <c r="J10" t="s">
         <v>4947</v>
       </c>
-      <c r="M10" t="s">
-        <v>4951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18652,7 +18620,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18681,7 +18649,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18710,7 +18678,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18739,7 +18707,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18768,7 +18736,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1445</v>
       </c>
@@ -60995,7 +60963,7 @@
         <v>4942</v>
       </c>
       <c r="J1438" t="s">
-        <v>4951</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.45">
@@ -62896,7 +62864,7 @@
         <v>4942</v>
       </c>
       <c r="J1502" t="s">
-        <v>4951</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.45">
@@ -62957,7 +62925,7 @@
         <v>4942</v>
       </c>
       <c r="J1504" t="s">
-        <v>4951</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.45">

--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt3_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt3_completions_RQ1_label_undeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="11_0D9540EE266B093C412D4C08052D3833786CCDC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CAAB6F-D053-4DF5-B82D-AF4942AEE49A}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="11_0D9540EE266B093C412D4C08052D3833786CCDC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F27282F-18FE-42D1-8F78-AB78FB46B9D6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17887,10 +17887,10 @@
     <t>Bad intentions detection</t>
   </si>
   <si>
-    <t>Remove target term</t>
-  </si>
-  <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>Avoid (un)targeted term</t>
   </si>
 </sst>
 </file>
@@ -18279,7 +18279,7 @@
   <dimension ref="A1:J1509"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J1511" sqref="J1511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18315,7 +18315,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -60963,7 +60963,7 @@
         <v>4942</v>
       </c>
       <c r="J1438" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.45">
@@ -62864,7 +62864,7 @@
         <v>4942</v>
       </c>
       <c r="J1502" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.45">
@@ -62925,7 +62925,7 @@
         <v>4942</v>
       </c>
       <c r="J1504" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.45">
@@ -63077,9 +63077,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1509" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1509" xr:uid="{8A233681-FB80-46D8-87F8-CFCBCAAF0523}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1437 J1505:J1509" xr:uid="{8A233681-FB80-46D8-87F8-CFCBCAAF0523}">
       <formula1>$M$2:$M$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt3_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt3_completions_RQ1_label_undeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="11_0D9540EE266B093C412D4C08052D3833786CCDC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F3352E3-6092-45D8-AF68-540C123123BF}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="11_0D9540EE266B093C412D4C08052D3833786CCDC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EFA38CD-0A66-405E-9E26-0E5A04B70901}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17887,10 +17887,10 @@
     <t>Bad intentions detection</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>Avoid (un)targeted term</t>
+  </si>
+  <si>
+    <t>label_RQ1</t>
   </si>
 </sst>
 </file>
@@ -18279,7 +18279,7 @@
   <dimension ref="A1:J1509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18316,7 +18316,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -32458,7 +32458,7 @@
         <v>4942</v>
       </c>
       <c r="J478" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.45">
@@ -48742,7 +48742,7 @@
         <v>4942</v>
       </c>
       <c r="J1027" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1028" spans="1:10" x14ac:dyDescent="0.45">
@@ -54666,7 +54666,7 @@
         <v>4942</v>
       </c>
       <c r="J1226" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.45">
@@ -63078,11 +63078,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1509" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1509">
-      <sortCondition ref="A1:A1509"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J1509" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1437 J1505:J1509" xr:uid="{8A233681-FB80-46D8-87F8-CFCBCAAF0523}">
       <formula1>$M$2:$M$10</formula1>
